--- a/Assets/DataSheet/Data_Quest.xlsx
+++ b/Assets/DataSheet/Data_Quest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>I</t>
@@ -79,6 +79,40 @@
         <scheme val="minor"/>
       </rPr>
       <t>namy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eward1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1Amount</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,9 +245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -497,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,9 +540,11 @@
     <col min="2" max="2" width="41.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,12 +557,18 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -537,6 +576,12 @@
       </c>
       <c r="D2" s="6">
         <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
